--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,111 +55,108 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>insane</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>boring</t>
   </si>
   <si>
-    <t>dangerous</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>sorry</t>
   </si>
   <si>
-    <t>disturbing</t>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>destroying</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>crazy</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shocked</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>dark</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>brilliant</t>
   </si>
   <si>
@@ -169,97 +166,103 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>high</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>top</t>
   </si>
   <si>
-    <t>first</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>live</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>whole</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>opening</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>real</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
     <t>media</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>dilemma</t>
   </si>
   <si>
     <t>’</t>
@@ -629,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +640,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -719,16 +722,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -769,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -819,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -848,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9519230769230769</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="C6">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D6">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -866,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>0.9</v>
@@ -898,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9393939393939394</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -948,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,16 +972,16 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.7931034482758621</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +1001,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1016,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.7719298245614035</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.7066666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L10">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1090,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1098,13 +1101,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1116,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11">
         <v>0.6666666666666666</v>
@@ -1148,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1166,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1219,16 +1222,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.6153846153846154</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1240,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1251,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.6</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1290,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7368421052631579</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1316,19 +1319,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.5925925925925926</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L15">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M15">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,13 +1351,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7272727272727273</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1366,31 +1369,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.5789473684210527</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L16">
+        <v>16</v>
+      </c>
+      <c r="M16">
+        <v>16</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>11</v>
-      </c>
-      <c r="M16">
-        <v>11</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1398,13 +1401,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1416,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.5555555555555556</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1440,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1448,13 +1451,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1466,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1490,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1498,13 +1501,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,28 +1522,28 @@
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.5384615384615384</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>7</v>
-      </c>
-      <c r="M19">
-        <v>7</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1548,13 +1551,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6666666666666666</v>
+        <v>0.6875</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1566,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.4242424242424243</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1590,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1598,13 +1601,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6470588235294118</v>
+        <v>0.65</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1616,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.3958333333333333</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1640,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1648,13 +1651,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.625</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1666,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22">
         <v>0.3333333333333333</v>
       </c>
       <c r="L22">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1690,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1698,13 +1701,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6170212765957447</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1716,13 +1719,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.3157894736842105</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L23">
         <v>6</v>
@@ -1740,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1748,13 +1751,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6153846153846154</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1766,19 +1769,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.3043478260869565</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L24">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1790,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1798,13 +1801,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5882352941176471</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1816,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K25">
-        <v>0.2377049180327869</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L25">
-        <v>261</v>
+        <v>6</v>
       </c>
       <c r="M25">
-        <v>261</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1840,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>837</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1848,13 +1851,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5652173913043478</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C26">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1866,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K26">
-        <v>0.2372881355932203</v>
+        <v>0.2304189435336976</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1890,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>45</v>
+        <v>845</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1898,13 +1901,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1916,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K27">
         <v>0.1951219512195122</v>
@@ -1948,13 +1951,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1966,19 +1969,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K28">
-        <v>0.1690140845070423</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1990,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1998,13 +2001,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5384615384615384</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2019,16 +2022,16 @@
         <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K29">
-        <v>0.1521739130434783</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="L29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2040,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2048,31 +2051,31 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5384615384615384</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>7</v>
       </c>
-      <c r="D30">
-        <v>7</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K30">
-        <v>0.1463414634146341</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L30">
         <v>6</v>
@@ -2090,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2098,7 +2101,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5217391304347826</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -2116,19 +2119,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K31">
-        <v>0.1230769230769231</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2140,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2148,38 +2151,38 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32">
+        <v>0.1263157894736842</v>
+      </c>
+      <c r="L32">
         <v>12</v>
       </c>
-      <c r="D32">
+      <c r="M32">
         <v>12</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>12</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K32">
-        <v>0.1147540983606557</v>
-      </c>
-      <c r="L32">
-        <v>7</v>
-      </c>
-      <c r="M32">
-        <v>7</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -2190,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2198,13 +2201,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2216,19 +2219,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>0.07368421052631578</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2240,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2248,13 +2251,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2266,13 +2269,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K34">
-        <v>0.07058823529411765</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L34">
         <v>6</v>
@@ -2290,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2298,13 +2301,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4642857142857143</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2316,19 +2319,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K35">
-        <v>0.03012048192771084</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2340,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>644</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2348,13 +2351,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3928571428571428</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2366,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K36">
-        <v>0.02639296187683285</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="L36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2390,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>332</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2398,13 +2401,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3846153846153846</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2416,19 +2419,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K37">
-        <v>0.02407407407407407</v>
+        <v>0.05109489051094891</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2440,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>527</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2448,13 +2451,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.25</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2466,19 +2469,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K38">
-        <v>0.01904761904761905</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L38">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M38">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2490,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>309</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2498,87 +2501,63 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.07692307692307693</v>
+        <v>0.0436241610738255</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>72</v>
+        <v>285</v>
       </c>
       <c r="J39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="L39">
+        <v>15</v>
+      </c>
+      <c r="M39">
+        <v>15</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K39">
-        <v>0.01536491677336748</v>
-      </c>
-      <c r="L39">
-        <v>12</v>
-      </c>
-      <c r="M39">
-        <v>12</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.0436241610738255</v>
-      </c>
-      <c r="C40">
-        <v>13</v>
-      </c>
-      <c r="D40">
-        <v>14</v>
-      </c>
-      <c r="E40">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F40">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>285</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="K40">
-        <v>0.01382488479262673</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2590,33 +2569,85 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>1712</v>
+        <v>648</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41">
+        <v>0.01920614596670935</v>
+      </c>
+      <c r="L41">
+        <v>15</v>
+      </c>
+      <c r="M41">
+        <v>15</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K41">
-        <v>0.01136363636363636</v>
-      </c>
-      <c r="L41">
-        <v>7</v>
-      </c>
-      <c r="M41">
-        <v>7</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>609</v>
+      <c r="K42">
+        <v>0.01670506912442396</v>
+      </c>
+      <c r="L42">
+        <v>29</v>
+      </c>
+      <c r="M42">
+        <v>29</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43">
+        <v>0.01461038961038961</v>
+      </c>
+      <c r="L43">
+        <v>9</v>
+      </c>
+      <c r="M43">
+        <v>9</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>607</v>
       </c>
     </row>
   </sheetData>
